--- a/Excel Task Sheet/DlitheTaskSheet.xlsx
+++ b/Excel Task Sheet/DlitheTaskSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230B7782-D446-4840-9F15-856076B654F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2AC7F-791B-4872-BEE7-1F08450FA1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D6EF9E40-F6E5-4B15-B6ED-A4975090F4F3}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +46,12 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Networking, React Installation</t>
+  </si>
+  <si>
+    <t>Create 5 react apps using npm</t>
   </si>
 </sst>
 </file>
@@ -104,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,18 +430,19 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,124 +457,161 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3">
+        <v>45705</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="3">
+        <v>45706</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3">
+        <v>45707</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3">
+        <v>45710</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="3">
+        <v>45713</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3">
+        <v>45715</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3">
+        <v>45717</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="3">
+        <v>45718</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3">
+        <v>45719</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3">
+        <v>45720</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="3">
+        <v>45721</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3">
+        <v>45722</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3">
+        <v>45723</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Task Sheet/DlitheTaskSheet.xlsx
+++ b/Excel Task Sheet/DlitheTaskSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prajw\Documents\Dlithe Internship\Excel Task Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2AC7F-791B-4872-BEE7-1F08450FA1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB331D5-7A5D-476B-B677-535697D89AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D6EF9E40-F6E5-4B15-B6ED-A4975090F4F3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Create 5 react apps using npm</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>1 HTML Portfoilio</t>
+  </si>
+  <si>
+    <t>banners advertisements</t>
+  </si>
+  <si>
+    <t>using css on portfolio website</t>
   </si>
 </sst>
 </file>
@@ -429,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3678A6-6B23-47EA-B4CC-5BE34D611B31}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -460,15 +472,18 @@
       <c r="A2" s="3">
         <v>45705</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45706</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -476,7 +491,9 @@
       <c r="A4" s="3">
         <v>45707</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
@@ -484,7 +501,9 @@
       <c r="A5" s="3">
         <v>45708</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
